--- a/data_config/ere_cfr_case.xlsx
+++ b/data_config/ere_cfr_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\gitproject\auto_web_GUI\data_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F183B991-4740-4470-8BC0-0B320E6BA103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C5E0B5-9509-41EE-BD1B-32FCCD5E5D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6190" yWindow="6000" windowWidth="28780" windowHeight="18370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="5760" windowWidth="34560" windowHeight="22200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>固定帧率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>录制时间</t>
+    <t>录制时间（S）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟显示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -357,44 +394,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>90</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>30</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>60</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>40</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>30</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/ere_cfr_case.xlsx
+++ b/data_config/ere_cfr_case.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\gitproject\auto_web_GUI\data_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C5E0B5-9509-41EE-BD1B-32FCCD5E5D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD1811B-2231-4FD6-BE70-B9417DE9F0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="5760" windowWidth="34560" windowHeight="22200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9156" yWindow="8424" windowWidth="19104" windowHeight="12612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>固定帧率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FLV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AVI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,11 +60,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虚拟显示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
+    <t>MOV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦克风降噪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +126,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -394,92 +407,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1">
+        <v>240</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>90</v>
-      </c>
-      <c r="B2" s="1">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>60</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+      <c r="C4" s="1">
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F879C4FC-8658-413C-8176-817476A4F6F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>